--- a/aiurt-module-system/src/main/resources/templates/emergencyRehearsalYear.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyRehearsalYear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\aiurt-platform\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDFB6D1-AB36-4689-85FC-8718DAD86E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B227B32-6C47-4087-ACD5-0576EDD56F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,40 @@
     <t>年度演练计划导入模板</t>
   </si>
   <si>
+    <t xml:space="preserve">计划名称 </t>
+  </si>
+  <si>
+    <t>演练计划</t>
+  </si>
+  <si>
+    <t>演练类型</t>
+  </si>
+  <si>
+    <t>演练科目</t>
+  </si>
+  <si>
+    <t>依托预案</t>
+  </si>
+  <si>
+    <t>预案版本</t>
+  </si>
+  <si>
+    <t>演练形式</t>
+  </si>
+  <si>
+    <t>组织部门</t>
+  </si>
+  <si>
+    <t>演练时间</t>
+  </si>
+  <si>
+    <t>必须体现环节</t>
+  </si>
+  <si>
+    <t>所属年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>年度演练计划导入模板</t>
     </r>
@@ -32,6 +66,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -45,6 +80,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>字段说明：</t>
@@ -54,6 +90,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,11 +101,12 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年份：比如：2023
 演练类型：单项应急预案/综合应急预案/现场处置方案；
-预案版本：比如：v1.0;
+预案版本：比如：1.0;
 演练形式：实战演练/桌面推演
 演练时间：年月，比如：</t>
     </r>
@@ -84,44 +122,12 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">计划名称 </t>
-  </si>
-  <si>
-    <t>演练计划</t>
-  </si>
-  <si>
-    <t>演练类型</t>
-  </si>
-  <si>
-    <t>演练科目</t>
-  </si>
-  <si>
-    <t>依托预案</t>
-  </si>
-  <si>
-    <t>预案版本</t>
-  </si>
-  <si>
-    <t>演练形式</t>
-  </si>
-  <si>
-    <t>组织部门</t>
-  </si>
-  <si>
-    <t>演练时间</t>
-  </si>
-  <si>
-    <t>必须体现环节</t>
-  </si>
-  <si>
-    <t>所属年份</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -137,55 +143,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -206,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -214,162 +226,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,28 +552,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="10" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="47.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="5" customWidth="1"/>
+    <col min="3" max="10" width="15.625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -688,65 +584,65 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -756,7 +652,7 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>